--- a/xlsx/跨Wiki链接_intext.xlsx
+++ b/xlsx/跨Wiki链接_intext.xlsx
@@ -29,7 +29,7 @@
     <t>万维网</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_跨Wiki链接</t>
+    <t>政策_政策_维基百科_跨Wiki链接</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%9D%E5%B3%B0%E5%BC%8F%E5%A4%A7%E5%B0%8F%E5%AF%AB</t>
   </si>
   <si>
-    <t>駝峰式大小寫</t>
+    <t>驼峰式大小写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTML</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>Wiki軟體</t>
+    <t>Wiki软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%AD%97%E7%A9%BA%E9%97%B4</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E6%A0%87%E8%AE%B0%E8%AF%AD%E8%A8%80</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_wiki_software</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4%E6%AF%94%E8%BC%83%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki農場比較表</t>
+    <t>Wiki农场比较表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_wikis</t>
